--- a/YSR_PSC_EmailLog.xlsx
+++ b/YSR_PSC_EmailLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BerilP\repos\PSC-EmailLog-YSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E33A9-3217-44DC-B8DC-7F143418CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC3B476-3427-42AB-98FD-EC7C245B9779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
+    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>&amp;=header.ReportDateRange</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Email Log</t>
   </si>
@@ -74,7 +71,31 @@
     <t>User</t>
   </si>
   <si>
-    <t>&amp;=display.datesent</t>
+    <t>&amp;=display.EmailStatus</t>
+  </si>
+  <si>
+    <t>&amp;=display.DateSent</t>
+  </si>
+  <si>
+    <t>&amp;=display.ReceipantNames</t>
+  </si>
+  <si>
+    <t>&amp;=display.Type</t>
+  </si>
+  <si>
+    <t>&amp;=display.Tenant</t>
+  </si>
+  <si>
+    <t>&amp;=display.Unit</t>
+  </si>
+  <si>
+    <t>&amp;=display.Subject</t>
+  </si>
+  <si>
+    <t>&amp;=display.RegisteredMail</t>
+  </si>
+  <si>
+    <t>&amp;=display.Sender</t>
   </si>
 </sst>
 </file>
@@ -151,12 +172,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -164,6 +179,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,75 +533,99 @@
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="30.7265625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="25" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/YSR_PSC_EmailLog.xlsx
+++ b/YSR_PSC_EmailLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BerilP\repos\PSC-EmailLog-YSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC3B476-3427-42AB-98FD-EC7C245B9779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DAE749-4130-4BE5-90E9-4297408984EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B63DC34-0586-4530-A387-FE773E15A224}"/>
   </bookViews>
   <sheets>
     <sheet name="PS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>&amp;=header.ReportDateRange</t>
+  </si>
   <si>
     <t>Email Log</t>
   </si>
@@ -77,9 +80,6 @@
     <t>&amp;=display.DateSent</t>
   </si>
   <si>
-    <t>&amp;=display.ReceipantNames</t>
-  </si>
-  <si>
     <t>&amp;=display.Type</t>
   </si>
   <si>
@@ -96,13 +96,19 @@
   </si>
   <si>
     <t>&amp;=display.Sender</t>
+  </si>
+  <si>
+    <t>&amp;=display.ReceipantEmails</t>
+  </si>
+  <si>
+    <t>&amp;=header.PropertyName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +142,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,21 +194,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2F4DB9-6383-4A6C-8BF5-AEE0D4F9DF2B}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +574,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.90625" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.26953125" customWidth="1"/>
     <col min="8" max="8" width="22.453125" customWidth="1"/>
@@ -542,89 +584,106 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="25" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
